--- a/results.xlsx
+++ b/results.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PredictionResults" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Leaderboard" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FeatureImportance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="РезультатыПрогноза" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ТаблицаЛидеров" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ВажностьПризнаков" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>survived</t>
+          <t>prediction</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.01000332832336426</v>
+        <v>0.01151871681213379</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.003002405166625977</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.317842960357666</v>
+        <v>0.444953441619873</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01000332832336426</v>
+        <v>0.01151871681213379</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.003002405166625977</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.317842960357666</v>
+        <v>0.444953441619873</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>1</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.01851463317871094</v>
+        <v>0.02222466468811035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006998300552368164</v>
+        <v>0.006266117095947266</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9697606563568115</v>
+        <v>1.608961343765259</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01851463317871094</v>
+        <v>0.02222466468811035</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006998300552368164</v>
+        <v>0.006266117095947266</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9697606563568115</v>
+        <v>1.608961343765259</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.01951456069946289</v>
+        <v>0.02322769165039062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007998943328857422</v>
+        <v>0.007266044616699219</v>
       </c>
       <c r="G4" t="n">
-        <v>1.025287628173828</v>
+        <v>1.668026208877563</v>
       </c>
       <c r="H4" t="n">
+        <v>0.001003026962280273</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.0009999275207519531</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.001000642776489258</v>
-      </c>
       <c r="J4" t="n">
-        <v>0.0555269718170166</v>
+        <v>0.05906486511230469</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.008002758026123047</v>
+        <v>0.008022069931030273</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002997636795043945</v>
+        <v>0.003007411956787109</v>
       </c>
       <c r="G5" t="n">
-        <v>1.139081478118896</v>
+        <v>2.156068325042725</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008002758026123047</v>
+        <v>0.008022069931030273</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002997636795043945</v>
+        <v>0.003007411956787109</v>
       </c>
       <c r="J5" t="n">
-        <v>1.139081478118896</v>
+        <v>2.156068325042725</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.04212522506713867</v>
+        <v>0.05774474143981934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04501128196716309</v>
+        <v>0.04487514495849609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3670365810394287</v>
+        <v>0.4150164127349854</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04212522506713867</v>
+        <v>0.05774474143981934</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04501128196716309</v>
+        <v>0.04487514495849609</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3670365810394287</v>
+        <v>0.4150164127349854</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -866,7 +866,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ExtraTreesEntr</t>
+          <t>RandomForestEntr</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.04609918594360352</v>
+        <v>0.05922818183898926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04598832130432129</v>
+        <v>0.04581332206726074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3920698165893555</v>
+        <v>0.380695104598999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04609918594360352</v>
+        <v>0.05922818183898926</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04598832130432129</v>
+        <v>0.04581332206726074</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3920698165893555</v>
+        <v>0.380695104598999</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RandomForestEntr</t>
+          <t>ExtraTreesEntr</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -926,22 +926,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.05968689918518066</v>
+        <v>0.0608673095703125</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0299985408782959</v>
+        <v>0.04611659049987793</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3210997581481934</v>
+        <v>0.391925573348999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05968689918518066</v>
+        <v>0.0608673095703125</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0299985408782959</v>
+        <v>0.04611659049987793</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3210997581481934</v>
+        <v>0.391925573348999</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.07161283493041992</v>
+        <v>0.07213926315307617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04522323608398438</v>
+        <v>0.04604554176330566</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3639070987701416</v>
+        <v>0.4334418773651123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07161283493041992</v>
+        <v>0.07213926315307617</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04522323608398438</v>
+        <v>0.04604554176330566</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3639070987701416</v>
+        <v>0.4334418773651123</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.001000881195068359</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005000829696655273</v>
+        <v>0.005459308624267578</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4348349571228027</v>
+        <v>0.3799614906311035</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.001000881195068359</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005000829696655273</v>
+        <v>0.005459308624267578</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4348349571228027</v>
+        <v>0.3799614906311035</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1061,22 +1061,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.001512527465820312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004999637603759766</v>
+        <v>0.00599980354309082</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3976950645446777</v>
+        <v>0.4158837795257568</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.001512527465820312</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004999637603759766</v>
+        <v>0.00599980354309082</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3976950645446777</v>
+        <v>0.4158837795257568</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1106,22 +1106,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.002000808715820312</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005000591278076172</v>
+        <v>0.005035877227783203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3639578819274902</v>
+        <v>1.852027177810669</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002000808715820312</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005000591278076172</v>
+        <v>0.005035877227783203</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3639578819274902</v>
+        <v>1.852027177810669</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.003005027770996094</v>
+        <v>0.003001689910888672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="G13" t="n">
-        <v>9.724859476089478</v>
+        <v>10.83362722396851</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003005027770996094</v>
+        <v>0.003001689910888672</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="J13" t="n">
-        <v>9.724859476089478</v>
+        <v>10.83362722396851</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1181,8 +1181,8 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Best model: XGBoost
-Reason: minimal score_val = 0.8209</t>
+          <t>Лучшая модель: XGBoost
+Причина: минимальный score_val = 0.8209</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>survived</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.01151871681213379</v>
+        <v>0.0100092887878418</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.444953441619873</v>
+        <v>0.3340644836425781</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01151871681213379</v>
+        <v>0.0100092887878418</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.444953441619873</v>
+        <v>0.3340644836425781</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>1</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02222466468811035</v>
+        <v>0.02194499969482422</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006266117095947266</v>
+        <v>0.006806850433349609</v>
       </c>
       <c r="G3" t="n">
-        <v>1.608961343765259</v>
+        <v>0.9280385971069336</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02222466468811035</v>
+        <v>0.02194499969482422</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006266117095947266</v>
+        <v>0.006806850433349609</v>
       </c>
       <c r="J3" t="n">
-        <v>1.608961343765259</v>
+        <v>0.9280385971069336</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.02322769165039062</v>
+        <v>0.02294468879699707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007266044616699219</v>
+        <v>0.007806539535522461</v>
       </c>
       <c r="G4" t="n">
-        <v>1.668026208877563</v>
+        <v>0.9834070205688477</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001003026962280273</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05906486511230469</v>
+        <v>0.05536842346191406</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.008022069931030273</v>
+        <v>0.007509946823120117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003007411956787109</v>
+        <v>0.00300145149230957</v>
       </c>
       <c r="G5" t="n">
-        <v>2.156068325042725</v>
+        <v>1.169659376144409</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008022069931030273</v>
+        <v>0.007509946823120117</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003007411956787109</v>
+        <v>0.00300145149230957</v>
       </c>
       <c r="J5" t="n">
-        <v>2.156068325042725</v>
+        <v>1.169659376144409</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.05774474143981934</v>
+        <v>0.05796384811401367</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04487514495849609</v>
+        <v>0.0454719066619873</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4150164127349854</v>
+        <v>0.3692240715026855</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05774474143981934</v>
+        <v>0.05796384811401367</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04487514495849609</v>
+        <v>0.0454719066619873</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4150164127349854</v>
+        <v>0.3692240715026855</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.05922818183898926</v>
+        <v>0.0602571964263916</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04581332206726074</v>
+        <v>0.04662322998046875</v>
       </c>
       <c r="G7" t="n">
-        <v>0.380695104598999</v>
+        <v>0.3800375461578369</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05922818183898926</v>
+        <v>0.0602571964263916</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04581332206726074</v>
+        <v>0.04662322998046875</v>
       </c>
       <c r="J7" t="n">
-        <v>0.380695104598999</v>
+        <v>0.3800375461578369</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -926,22 +926,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0608673095703125</v>
+        <v>0.06042957305908203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04611659049987793</v>
+        <v>0.04633879661560059</v>
       </c>
       <c r="G8" t="n">
-        <v>0.391925573348999</v>
+        <v>0.3825609683990479</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0608673095703125</v>
+        <v>0.06042957305908203</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04611659049987793</v>
+        <v>0.04633879661560059</v>
       </c>
       <c r="J8" t="n">
-        <v>0.391925573348999</v>
+        <v>0.3825609683990479</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.07213926315307617</v>
+        <v>0.06995820999145508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04604554176330566</v>
+        <v>0.06035304069519043</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4334418773651123</v>
+        <v>0.4183516502380371</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07213926315307617</v>
+        <v>0.06995820999145508</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04604554176330566</v>
+        <v>0.06035304069519043</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4334418773651123</v>
+        <v>0.4183516502380371</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.001000881195068359</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005459308624267578</v>
+        <v>0.005997896194458008</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3799614906311035</v>
+        <v>0.4307231903076172</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001000881195068359</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005459308624267578</v>
+        <v>0.005997896194458008</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3799614906311035</v>
+        <v>0.4307231903076172</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1061,22 +1061,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.001512527465820312</v>
+        <v>0.00100255012512207</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00599980354309082</v>
+        <v>0.006506443023681641</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4158837795257568</v>
+        <v>0.4807240962982178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001512527465820312</v>
+        <v>0.00100255012512207</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00599980354309082</v>
+        <v>0.006506443023681641</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4158837795257568</v>
+        <v>0.4807240962982178</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1085,20 +1085,20 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LightGBMXT</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.7832803271240345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.81859410430839</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1106,22 +1106,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.002000331878662109</v>
+        <v>0.003001213073730469</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005035877227783203</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="G12" t="n">
-        <v>1.852027177810669</v>
+        <v>10.90010786056519</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002000331878662109</v>
+        <v>0.003001213073730469</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005035877227783203</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="J12" t="n">
-        <v>1.852027177810669</v>
+        <v>10.90010786056519</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1130,20 +1130,20 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>LightGBMXT</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.7832803271240345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.81859410430839</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.003001689910888672</v>
+        <v>0.003008127212524414</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.005002260208129883</v>
       </c>
       <c r="G13" t="n">
-        <v>10.83362722396851</v>
+        <v>0.4420068264007568</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003001689910888672</v>
+        <v>0.003008127212524414</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001000404357910156</v>
+        <v>0.005002260208129883</v>
       </c>
       <c r="J13" t="n">
-        <v>10.83362722396851</v>
+        <v>0.4420068264007568</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">

--- a/results.xlsx
+++ b/results.xlsx
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0100092887878418</v>
+        <v>0.01041340827941895</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.002506256103515625</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.3340644836425781</v>
+        <v>0.3263087272644043</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0100092887878418</v>
+        <v>0.01041340827941895</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.002506256103515625</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.3340644836425781</v>
+        <v>0.3263087272644043</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>1</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02194499969482422</v>
+        <v>0.01988315582275391</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006806850433349609</v>
+        <v>0.006799697875976562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9280385971069336</v>
+        <v>0.874518871307373</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02194499969482422</v>
+        <v>0.01988315582275391</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006806850433349609</v>
+        <v>0.006799697875976562</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9280385971069336</v>
+        <v>0.874518871307373</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.02294468879699707</v>
+        <v>0.0203852653503418</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007806539535522461</v>
+        <v>0.007802486419677734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9834070205688477</v>
+        <v>0.9290904998779297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.0005021095275878906</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.001002788543701172</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05536842346191406</v>
+        <v>0.05457162857055664</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.007509946823120117</v>
+        <v>0.007513046264648438</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00300145149230957</v>
+        <v>0.003002166748046875</v>
       </c>
       <c r="G5" t="n">
-        <v>1.169659376144409</v>
+        <v>1.144529819488525</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007509946823120117</v>
+        <v>0.007513046264648438</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00300145149230957</v>
+        <v>0.003002166748046875</v>
       </c>
       <c r="J5" t="n">
-        <v>1.169659376144409</v>
+        <v>1.144529819488525</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ExtraTreesGini</t>
+          <t>ExtraTreesEntr</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.05796384811401367</v>
+        <v>0.04523396492004395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0454719066619873</v>
+        <v>0.04684567451477051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3692240715026855</v>
+        <v>0.368793249130249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05796384811401367</v>
+        <v>0.04523396492004395</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0454719066619873</v>
+        <v>0.04684567451477051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3692240715026855</v>
+        <v>0.368793249130249</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RandomForestEntr</t>
+          <t>ExtraTreesGini</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0602571964263916</v>
+        <v>0.05806517601013184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04662322998046875</v>
+        <v>0.04448080062866211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3800375461578369</v>
+        <v>0.3705329895019531</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0602571964263916</v>
+        <v>0.05806517601013184</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04662322998046875</v>
+        <v>0.04448080062866211</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3800375461578369</v>
+        <v>0.3705329895019531</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ExtraTreesEntr</t>
+          <t>RandomForestEntr</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -926,22 +926,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.06042957305908203</v>
+        <v>0.06071352958679199</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04633879661560059</v>
+        <v>0.04528903961181641</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3825609683990479</v>
+        <v>0.3695595264434814</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06042957305908203</v>
+        <v>0.06071352958679199</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04633879661560059</v>
+        <v>0.04528903961181641</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3825609683990479</v>
+        <v>0.3695595264434814</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.06995820999145508</v>
+        <v>0.06689929962158203</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06035304069519043</v>
+        <v>0.04654407501220703</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4183516502380371</v>
+        <v>0.4331405162811279</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06995820999145508</v>
+        <v>0.06689929962158203</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06035304069519043</v>
+        <v>0.04654407501220703</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4183516502380371</v>
+        <v>0.4331405162811279</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1019,19 +1019,19 @@
         <v>0.00099945068359375</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005997896194458008</v>
+        <v>0.006535768508911133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4307231903076172</v>
+        <v>0.4642782211303711</v>
       </c>
       <c r="H10" t="n">
         <v>0.00099945068359375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005997896194458008</v>
+        <v>0.006535768508911133</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4307231903076172</v>
+        <v>0.4642782211303711</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1061,22 +1061,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.00100255012512207</v>
+        <v>0.001501798629760742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006506443023681641</v>
+        <v>0.005782365798950195</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4807240962982178</v>
+        <v>0.4182765483856201</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00100255012512207</v>
+        <v>0.001501798629760742</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006506443023681641</v>
+        <v>0.005782365798950195</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4807240962982178</v>
+        <v>0.4182765483856201</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1085,20 +1085,20 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>LightGBMXT</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0.7832803271240345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.81859410430839</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1106,22 +1106,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.003001213073730469</v>
+        <v>0.002002239227294922</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.005505561828613281</v>
       </c>
       <c r="G12" t="n">
-        <v>10.90010786056519</v>
+        <v>0.4384386539459229</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003001213073730469</v>
+        <v>0.002002239227294922</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.005505561828613281</v>
       </c>
       <c r="J12" t="n">
-        <v>10.90010786056519</v>
+        <v>0.4384386539459229</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1130,20 +1130,20 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LightGBMXT</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.7832803271240345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.81859410430839</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.003008127212524414</v>
+        <v>0.003507375717163086</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005002260208129883</v>
+        <v>0.001503229141235352</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4420068264007568</v>
+        <v>10.6693549156189</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003008127212524414</v>
+        <v>0.003507375717163086</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005002260208129883</v>
+        <v>0.001503229141235352</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4420068264007568</v>
+        <v>10.6693549156189</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">

--- a/results.xlsx
+++ b/results.xlsx
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.01041340827941895</v>
+        <v>0.0100102424621582</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.002506256103515625</v>
+        <v>0.002999067306518555</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.3263087272644043</v>
+        <v>0.3472151756286621</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01041340827941895</v>
+        <v>0.0100102424621582</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.002506256103515625</v>
+        <v>0.002999067306518555</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.3263087272644043</v>
+        <v>0.3472151756286621</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>1</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.01988315582275391</v>
+        <v>0.02276396751403809</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006799697875976562</v>
+        <v>0.00701904296875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.874518871307373</v>
+        <v>0.903550386428833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01988315582275391</v>
+        <v>0.02276396751403809</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006799697875976562</v>
+        <v>0.00701904296875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.874518871307373</v>
+        <v>0.903550386428833</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0203852653503418</v>
+        <v>0.02376675605773926</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007802486419677734</v>
+        <v>0.008019208908081055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9290904998779297</v>
+        <v>0.9569094181060791</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005021095275878906</v>
+        <v>0.001002788543701172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001002788543701172</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05457162857055664</v>
+        <v>0.05335903167724609</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.007513046264648438</v>
+        <v>0.007504463195800781</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003002166748046875</v>
+        <v>0.002002239227294922</v>
       </c>
       <c r="G5" t="n">
-        <v>1.144529819488525</v>
+        <v>1.167051553726196</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007513046264648438</v>
+        <v>0.007504463195800781</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003002166748046875</v>
+        <v>0.002002239227294922</v>
       </c>
       <c r="J5" t="n">
-        <v>1.144529819488525</v>
+        <v>1.167051553726196</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ExtraTreesEntr</t>
+          <t>ExtraTreesGini</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.04523396492004395</v>
+        <v>0.05644011497497559</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04684567451477051</v>
+        <v>0.04399371147155762</v>
       </c>
       <c r="G6" t="n">
-        <v>0.368793249130249</v>
+        <v>0.3789751529693604</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04523396492004395</v>
+        <v>0.05644011497497559</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04684567451477051</v>
+        <v>0.04399371147155762</v>
       </c>
       <c r="J6" t="n">
-        <v>0.368793249130249</v>
+        <v>0.3789751529693604</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ExtraTreesGini</t>
+          <t>RandomForestEntr</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.05806517601013184</v>
+        <v>0.06042385101318359</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04448080062866211</v>
+        <v>0.04523229598999023</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3705329895019531</v>
+        <v>0.4111359119415283</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05806517601013184</v>
+        <v>0.06042385101318359</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04448080062866211</v>
+        <v>0.04523229598999023</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3705329895019531</v>
+        <v>0.4111359119415283</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RandomForestEntr</t>
+          <t>ExtraTreesEntr</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -926,22 +926,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.06071352958679199</v>
+        <v>0.06110954284667969</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04528903961181641</v>
+        <v>0.04391002655029297</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3695595264434814</v>
+        <v>0.3802022933959961</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06071352958679199</v>
+        <v>0.06110954284667969</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04528903961181641</v>
+        <v>0.04391002655029297</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3695595264434814</v>
+        <v>0.3802022933959961</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.06689929962158203</v>
+        <v>0.07008194923400879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04654407501220703</v>
+        <v>0.04435467720031738</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4331405162811279</v>
+        <v>0.4156992435455322</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06689929962158203</v>
+        <v>0.07008194923400879</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04654407501220703</v>
+        <v>0.04435467720031738</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4331405162811279</v>
+        <v>0.4156992435455322</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.00099945068359375</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006535768508911133</v>
+        <v>0.005511999130249023</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4642782211303711</v>
+        <v>0.4886796474456787</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00099945068359375</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006535768508911133</v>
+        <v>0.005511999130249023</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4642782211303711</v>
+        <v>0.4886796474456787</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>LightGBMXT</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1061,22 +1061,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.001501798629760742</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005782365798950195</v>
+        <v>0.006002664566040039</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4182765483856201</v>
+        <v>0.4789199829101562</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001501798629760742</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005782365798950195</v>
+        <v>0.006002664566040039</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4182765483856201</v>
+        <v>0.4789199829101562</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LightGBMXT</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1106,22 +1106,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.002002239227294922</v>
+        <v>0.001504898071289062</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005505561828613281</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4384386539459229</v>
+        <v>0.4237697124481201</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002002239227294922</v>
+        <v>0.001504898071289062</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005505561828613281</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4384386539459229</v>
+        <v>0.4237697124481201</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.003507375717163086</v>
+        <v>0.003231525421142578</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001503229141235352</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="G13" t="n">
-        <v>10.6693549156189</v>
+        <v>11.45800924301147</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003507375717163086</v>
+        <v>0.003231525421142578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001503229141235352</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="J13" t="n">
-        <v>10.6693549156189</v>
+        <v>11.45800924301147</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,108 +445,125 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>survived</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sex</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>survived</t>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>first</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>first</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>crew</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>crew</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
@@ -563,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,22 +673,22 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0100102424621582</v>
+        <v>0.01000428199768066</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.002999067306518555</v>
+        <v>0.002000570297241211</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.3472151756286621</v>
+        <v>0.2359588146209717</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0100102424621582</v>
+        <v>0.01000428199768066</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.002999067306518555</v>
+        <v>0.002000570297241211</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.3472151756286621</v>
+        <v>0.2359588146209717</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>1</v>
@@ -701,22 +718,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02276396751403809</v>
+        <v>0.02352333068847656</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00701904296875</v>
+        <v>0.005769968032836914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.903550386428833</v>
+        <v>0.8755853176116943</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02276396751403809</v>
+        <v>0.02352333068847656</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00701904296875</v>
+        <v>0.005769968032836914</v>
       </c>
       <c r="J3" t="n">
-        <v>0.903550386428833</v>
+        <v>0.8755853176116943</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -746,22 +763,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.02376675605773926</v>
+        <v>0.02452325820922852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008019208908081055</v>
+        <v>0.005769968032836914</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9569094181060791</v>
+        <v>0.9272396564483643</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001002788543701172</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001000165939331055</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05335903167724609</v>
+        <v>0.05165433883666992</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -791,22 +808,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.007504463195800781</v>
+        <v>0.007002592086791992</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002002239227294922</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="G5" t="n">
-        <v>1.167051553726196</v>
+        <v>1.084226369857788</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007504463195800781</v>
+        <v>0.007002592086791992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002002239227294922</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="J5" t="n">
-        <v>1.167051553726196</v>
+        <v>1.084226369857788</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -821,7 +838,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ExtraTreesGini</t>
+          <t>ExtraTreesEntr</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -836,22 +853,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.05644011497497559</v>
+        <v>0.04607605934143066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04399371147155762</v>
+        <v>0.04483747482299805</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3789751529693604</v>
+        <v>0.3316648006439209</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05644011497497559</v>
+        <v>0.04607605934143066</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04399371147155762</v>
+        <v>0.04483747482299805</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3789751529693604</v>
+        <v>0.3316648006439209</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -860,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RandomForestEntr</t>
+          <t>ExtraTreesGini</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -881,22 +898,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.06042385101318359</v>
+        <v>0.0560905933380127</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04523229598999023</v>
+        <v>0.03073883056640625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4111359119415283</v>
+        <v>0.3495750427246094</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06042385101318359</v>
+        <v>0.0560905933380127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04523229598999023</v>
+        <v>0.03073883056640625</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4111359119415283</v>
+        <v>0.3495750427246094</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -905,13 +922,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ExtraTreesEntr</t>
+          <t>RandomForestEntr</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -926,22 +943,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.06110954284667969</v>
+        <v>0.06020259857177734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04391002655029297</v>
+        <v>0.04472184181213379</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3802022933959961</v>
+        <v>0.3513591289520264</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06110954284667969</v>
+        <v>0.06020259857177734</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04391002655029297</v>
+        <v>0.04472184181213379</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3802022933959961</v>
+        <v>0.3513591289520264</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -950,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -971,22 +988,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.07008194923400879</v>
+        <v>0.06402373313903809</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04435467720031738</v>
+        <v>0.04569196701049805</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4156992435455322</v>
+        <v>0.4127936363220215</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07008194923400879</v>
+        <v>0.06402373313903809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04435467720031738</v>
+        <v>0.04569196701049805</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4156992435455322</v>
+        <v>0.4127936363220215</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1001,7 +1018,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LightGBMXT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1016,22 +1033,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005511999130249023</v>
+        <v>0.005000114440917969</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4886796474456787</v>
+        <v>0.3185684680938721</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005511999130249023</v>
+        <v>0.005000114440917969</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4886796474456787</v>
+        <v>0.3185684680938721</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1040,13 +1057,13 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LightGBMXT</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1061,22 +1078,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006002664566040039</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4789199829101562</v>
+        <v>0.3060669898986816</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006002664566040039</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4789199829101562</v>
+        <v>0.3060669898986816</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1085,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1106,22 +1123,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.001504898071289062</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004999399185180664</v>
+        <v>0.005506992340087891</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4237697124481201</v>
+        <v>0.3455502986907959</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001504898071289062</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004999399185180664</v>
+        <v>0.005506992340087891</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4237697124481201</v>
+        <v>0.3455502986907959</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1130,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1151,22 +1168,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.003231525421142578</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002000331878662109</v>
+        <v>0.001002073287963867</v>
       </c>
       <c r="G13" t="n">
-        <v>11.45800924301147</v>
+        <v>5.652811050415039</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003231525421142578</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002000331878662109</v>
+        <v>0.001002073287963867</v>
       </c>
       <c r="J13" t="n">
-        <v>11.45800924301147</v>
+        <v>5.652811050415039</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1176,14 +1193,6 @@
       </c>
       <c r="M13" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Лучшая модель: XGBoost
-Причина: минимальный score_val = 0.8209</t>
-        </is>
       </c>
     </row>
   </sheetData>
